--- a/CFC/Docs/需求/金好算功能需求_20240903.xlsx
+++ b/CFC/Docs/需求/金好算功能需求_20240903.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\CFC\CFC\Docs\需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D96990-F095-4FB2-B6A1-0A8EFE073D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99743543-FFC9-4BC0-9B8B-EDE81FC5F99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8BE54A2B-DE1F-48A6-A156-5A8B01721ED5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8BE54A2B-DE1F-48A6-A156-5A8B01721ED5}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="需求表紀錄" sheetId="1" r:id="rId1"/>
     <sheet name="製造業及非製造業" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$J$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">需求表紀錄!$A$1:$J$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="72">
   <si>
     <t>需求名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,6 @@
   </si>
   <si>
     <t>會員申請頁面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用同一頁面顯示，不用彈跳出的視窗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -410,10 +406,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待低碳組9/13提供樣版檔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(1)	自註冊源頭進行分流，會員註冊資料欄位包含如下：
 A.	共通欄位：統一編號、單位名稱、行業別、規模
 B.	製造業會員：需依所登記廠數填寫對應工廠資料(包括工廠名稱、工廠登記證、工廠地址、產業園區、產業別)
@@ -465,6 +457,87 @@
     <t>針對業務單位需求設計管理頁面(含會員資料管理、專案管理、數據分析面板)之管理模組，其功能至少如下：
 A.	會員資料管理需依據註冊資料，分別製作製造業及非製造業2組管理介面(含內容編輯、檔案匯出功能)
 B.	專案管理需有會員計算紀錄明細查詢及數據分析面板2組管理介面，其中分析部份需包含排放量加總統計(可篩選行業、地區、產業園區)及個案工廠比較</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用同一頁面顯示，不用彈跳出的視窗，畫面加大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畫面已放大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待低碳組9/13提供樣版檔
+9/25提供最後的樣版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端介面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工業區跟產業別使用新的"會員註冊選單.xlsx"來更新現有的資料。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工業區跟縣市別有有關聯。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統介面中"係數選擇"改成"IPCC AR版本選擇"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非製造業在下載的EXCEL時，廠商資料頁籤中不用帶出工廠資訊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下載的EXCEL裡，於"排放源鑑別"頁籤中，只列出有填的項目，該頁籤後方的紫色區域不用顯示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下載的EXCEL裡，"排放量計算"頁籤中，只列出有填的項目。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下載的EXCEL裡，"排放量計算"頁籤中，多一個「溫室氣體#4-排放係數」, 該區域只存HFCs、PFCs、SF6、NF3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下載的EXCEL裡，於"排放源鑑別"頁籤中，"數據來源表單名稱 "這個欄位都留空白。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下載的EXCEL裡，於"排放源鑑別"頁籤中，"保存單位 "這個欄位都留空白。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下載的EXCEL裡，於"排放源鑑別"頁籤中，"係數來源 "這個欄位都留空白。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下載的EXCEL裡，於"排放源鑑別"頁籤中，係數單位是否有存在資料庫中，若有，改成用資料庫查詢帶出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下載的EXCEL裡，於"排放源鑑別"頁籤中，GWP、"排放當量( 公噸CO2e/年)"  確認會分別取自AR4, AR5, AR6的資料來計算。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案儲存中, "日期區間"文字改成"盤查期程"；工廠登記"號"改成工廠登記"證"；選擇工廠改成"盤查場域"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>後台計算 &gt;類別二有電力, 蒸氣,。 可否分四類, 肉眼可視。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2029,10 +2102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3DED75-4B99-4CF4-8A27-21A371C36B49}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2052,10 +2125,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -2073,7 +2146,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -2082,7 +2155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2093,19 +2166,28 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1">
         <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>45545</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2116,16 +2198,16 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" s="5">
         <v>1</v>
@@ -2145,22 +2227,28 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6">
+        <v>45555</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2171,19 +2259,25 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2194,16 +2288,22 @@
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>45555</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2217,19 +2317,19 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2237,19 +2337,19 @@
         <v>45537</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2260,19 +2360,19 @@
         <v>45537</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2283,19 +2383,19 @@
         <v>45537</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="5">
         <v>1</v>
@@ -2303,11 +2403,8 @@
       <c r="I10" s="6">
         <v>45539</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2315,19 +2412,19 @@
         <v>45537</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" s="5">
         <v>1</v>
@@ -2335,11 +2432,8 @@
       <c r="I11" s="6">
         <v>45540</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2347,19 +2441,19 @@
         <v>45537</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" s="5">
         <v>1</v>
@@ -2367,11 +2461,8 @@
       <c r="I12" s="6">
         <v>45544</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2379,19 +2470,19 @@
         <v>45537</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H13" s="5">
         <v>1</v>
@@ -2399,11 +2490,8 @@
       <c r="I13" s="6">
         <v>45544</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2411,19 +2499,19 @@
         <v>45537</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H14" s="5">
         <v>1</v>
@@ -2431,11 +2519,8 @@
       <c r="I14" s="6">
         <v>45544</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2443,19 +2528,19 @@
         <v>45537</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" s="5">
         <v>1</v>
@@ -2463,11 +2548,8 @@
       <c r="I15" s="6">
         <v>45544</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2475,19 +2557,19 @@
         <v>45537</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16" s="5">
         <v>1</v>
@@ -2495,11 +2577,8 @@
       <c r="I16" s="6">
         <v>45544</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2507,28 +2586,25 @@
         <v>45537</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H17" s="5">
         <v>1</v>
       </c>
       <c r="I17" s="6">
         <v>45544</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -2539,19 +2615,22 @@
         <v>45537</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E18" s="1">
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -2562,22 +2641,28 @@
         <v>45537</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="E19" s="1">
         <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2585,22 +2670,25 @@
         <v>45537</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2608,19 +2696,22 @@
         <v>45537</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="190.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2631,22 +2722,22 @@
         <v>45541</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E22" s="1">
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
@@ -2657,19 +2748,19 @@
         <v>45541</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E23" s="1">
         <v>4</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
@@ -2677,19 +2768,25 @@
         <v>45541</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E24" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6">
+        <v>45555</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
@@ -2697,19 +2794,19 @@
         <v>45541</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E25" s="1">
         <v>4</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
@@ -2717,19 +2814,19 @@
         <v>45541</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E26" s="1">
         <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="96.6" x14ac:dyDescent="0.3">
@@ -2737,23 +2834,321 @@
         <v>45541</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E27" s="1">
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="6">
+        <v>45560</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="6">
+        <v>45560</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1</v>
+      </c>
+      <c r="I29" s="6">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="6">
+        <v>45560</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="5">
+        <v>1</v>
+      </c>
+      <c r="I30" s="6">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="6">
+        <v>45560</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1</v>
+      </c>
+      <c r="I31" s="6">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="6">
+        <v>45560</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="6">
+        <v>45560</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="6">
+        <v>45560</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="6">
+        <v>45560</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="6">
+        <v>45560</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="6">
+        <v>45560</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B38" s="6">
+        <v>45560</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B39" s="6">
+        <v>45560</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="6">
+        <v>45560</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="6">
+        <v>45560</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="1">
+        <v>4</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J21" xr:uid="{3F3DED75-4B99-4CF4-8A27-21A371C36B49}">
+  <autoFilter ref="A1:J41" xr:uid="{3F3DED75-4B99-4CF4-8A27-21A371C36B49}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J21">
       <sortCondition ref="A1:A21"/>
     </sortState>
@@ -2767,7 +3162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DB096E-0543-404E-8FD0-3F9D2ADBD50D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
